--- a/AAII_Financials/Yearly/MU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/MU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MU_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44077</v>
+      </c>
+      <c r="E7" s="2">
         <v>43706</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43342</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42978</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42614</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42250</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41879</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41515</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41151</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40787</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21435000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23406000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30391000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20322000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12399000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16192000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16358000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9073000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8234000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8788000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14883000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12704000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12500000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11886000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9894000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10977000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10921000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7226000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14532000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14060000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6552000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10702000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17891000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8436000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2505000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5215000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5437000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1847000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-6298000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5272000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,41 +842,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2441000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2141000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1824000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1617000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1540000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1371000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>931000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>918000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>791000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,42 +911,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3">
         <v>367000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>413000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>47000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>71000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>51000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>278000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1375000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-183000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,9 +983,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>18392000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16426000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15782000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14483000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12235000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13242000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13276000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7336000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8846000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8140000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3043000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6980000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14609000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5839000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>164000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2950000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3082000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1737000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-612000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>648000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,173 +1087,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E20" s="3">
         <v>196000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>40000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-221000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>8827000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12600000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19408000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9658000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3136000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5647000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5188000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3320000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1566000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E22" s="3">
         <v>128000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>342000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>601000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>437000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>371000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>352000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>231000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>179000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>124000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2983000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7048000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14307000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5196000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-281000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2609000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2733000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1285000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-754000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>551000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E24" s="3">
         <v>703000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>342000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>114000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>157000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>128000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>203000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2703000</v>
+      </c>
+      <c r="E26" s="3">
         <v>6345000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13965000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5082000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2452000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2605000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1277000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-737000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>348000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2687000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6303000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13961000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5089000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-276000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2899000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3045000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1190000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1032000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>167000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,20 +1408,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>10000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>174000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>16</v>
@@ -1380,12 +1441,15 @@
       <c r="K29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-196000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-40000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>221000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2687000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6313000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14135000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5089000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-276000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2899000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3045000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1190000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1032000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>167000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2687000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6313000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14135000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5089000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-276000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2899000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3045000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1190000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1032000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>167000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44077</v>
+      </c>
+      <c r="E38" s="2">
         <v>43706</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43342</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42978</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42614</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42250</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41879</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41515</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41151</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40787</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,305 +1736,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7624000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7152000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6506000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5109000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4140000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2287000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4150000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2880000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2459000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2160000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E42" s="3">
         <v>803000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>296000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>319000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>258000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1234000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>384000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>221000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3912000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3193000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5478000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3759000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2068000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2507000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5430000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2326000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2442000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1497000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5607000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5118000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3595000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3123000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2889000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2340000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2455000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2649000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1812000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2080000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E45" s="3">
         <v>237000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>164000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>147000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>140000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>228000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>835000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>257000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>95000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17965000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16503000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16039000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12457000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9495000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8596000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10245000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8911000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5758000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5832000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1164000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>473000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>633000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1778000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3492000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1790000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>895000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>763000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>535000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31615000</v>
+      </c>
+      <c r="E48" s="3">
         <v>28240000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23672000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19431000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14686000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10554000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31556000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7626000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27470000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7555000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1568000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1559000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1615000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>464000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>449000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>468000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>386000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>410000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>414000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1488000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1412000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1633000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1117000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1052000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1313000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1300000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>666000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>424000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53678000</v>
+      </c>
+      <c r="E54" s="3">
         <v>48887000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43376000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35336000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27540000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24143000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22498000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19118000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14328000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14752000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2272,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1677000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1692000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1683000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1495000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1020000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>996000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1048000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1055000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1348000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1310000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>859000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1262000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>756000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1089000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1638000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1585000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>224000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>140000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4008000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3403000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3203000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2389000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2584000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1796000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2345000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1492000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1201000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>992000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6635000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6390000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5754000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5334000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4835000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3905000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4811000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4125000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2243000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2480000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6373000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4541000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3780000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9893000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9154000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6301000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5012000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4452000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3038000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1861000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1674000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1088000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>581000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>639000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>623000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>698000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1102000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>535000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1260000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>559000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14682000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13006000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11082000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16715000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15460000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11841000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11727000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9976000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6628000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6282000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33384000</v>
+      </c>
+      <c r="E72" s="3">
         <v>30761000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24395000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10260000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5299000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5588000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2729000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-212000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1402000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-370000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38996000</v>
+      </c>
+      <c r="E76" s="3">
         <v>35881000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32294000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18621000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12080000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12302000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10771000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9142000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7700000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8470000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44077</v>
+      </c>
+      <c r="E80" s="2">
         <v>43706</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43342</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42978</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42614</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42250</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41879</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41515</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41151</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40787</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2687000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6313000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14135000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5089000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-276000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2899000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3045000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1190000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1032000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>167000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5650000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5424000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4759000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3861000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2980000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2667000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2103000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1804000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2141000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8306000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13189000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17400000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8153000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3168000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5208000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5699000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1811000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2114000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2484000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8223000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9780000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8879000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4734000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5817000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4021000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3107000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1442000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1699000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2550000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7589000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10085000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8216000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7537000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3068000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6232000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2902000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1910000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,8 +3529,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3328,9 +3562,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3670,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-317000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2438000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7776000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>349000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1745000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-718000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1499000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>520000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>497000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-121000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-28000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E102" s="3">
         <v>692000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1371000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>953000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1853000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1863000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1270000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>421000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>299000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-753000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>MU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44441</v>
+      </c>
+      <c r="E7" s="2">
         <v>44077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43706</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43342</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42978</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42614</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42250</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41879</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41515</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41151</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40787</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27705000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21435000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23406000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30391000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20322000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12399000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16192000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16358000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9073000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8234000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8788000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17233000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14883000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12704000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12500000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11886000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9894000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10977000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10921000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7226000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14532000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14060000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10472000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6552000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10702000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17891000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8436000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2505000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5215000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5437000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1847000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-6298000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-5272000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,44 +856,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2663000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2600000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2441000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2141000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1824000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1617000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1540000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1371000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>931000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>918000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>791000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,45 +931,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>367000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>413000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>47000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>71000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>51000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>278000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1375000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-183000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,9 +1009,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1026,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>21423000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18392000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16426000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15782000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14483000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12235000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13242000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13276000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7336000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8846000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8140000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>6282000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3043000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6980000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14609000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5839000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>164000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2950000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3082000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1737000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-612000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>648000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1088,188 +1121,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E20" s="3">
         <v>134000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>196000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>40000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>30000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-221000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>12615000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8827000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12600000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19408000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9658000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3136000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5647000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5188000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3320000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1566000</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E22" s="3">
         <v>194000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>128000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>342000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>601000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>437000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>371000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>352000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>231000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>179000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>124000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6218000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2983000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7048000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14307000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5196000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-281000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2609000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2733000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1285000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-754000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>551000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E24" s="3">
         <v>280000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>703000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>342000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>114000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>157000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>128000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>203000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1352,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5824000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2703000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6345000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13965000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5082000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2452000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2605000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1277000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-737000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>348000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5861000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2687000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6303000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13961000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5089000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-276000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2899000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3045000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1190000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1032000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>167000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,23 +1469,26 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>10000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>174000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>16</v>
@@ -1444,12 +1505,15 @@
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1547,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1586,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-134000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-196000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-40000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-30000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>221000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5861000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2687000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6313000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14135000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5089000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-276000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2899000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3045000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1190000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1032000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>167000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1703,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5861000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2687000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6313000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14135000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5089000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-276000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2899000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3045000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1190000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1032000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>167000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44441</v>
+      </c>
+      <c r="E38" s="2">
         <v>44077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43706</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43342</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42978</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42614</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42250</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41879</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41515</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41151</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40787</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1806,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,332 +1823,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7763000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7624000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7152000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6506000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5109000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4140000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2287000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4150000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2880000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2459000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2160000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E42" s="3">
         <v>518000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>803000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>296000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>319000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>258000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1234000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>384000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>221000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100000</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5311000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3912000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3193000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5478000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3759000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2068000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2507000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5430000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2326000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2442000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1497000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4487000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5607000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5118000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3595000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3123000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2889000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2340000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2455000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2649000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1812000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2080000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="E45" s="3">
         <v>304000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>237000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>164000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>147000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>140000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>228000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>835000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>257000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>95000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19907000</v>
+      </c>
+      <c r="E46" s="3">
         <v>17965000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16503000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16039000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12457000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9495000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8596000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10245000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8911000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5758000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5832000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1048000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1164000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>473000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>633000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1778000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3492000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1790000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>895000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>763000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>535000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33764000</v>
+      </c>
+      <c r="E48" s="3">
         <v>31615000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28240000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23672000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19431000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14686000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10554000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31556000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7626000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27470000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7555000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1562000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1568000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1559000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1615000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>464000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>449000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>468000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>386000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>410000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>414000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2210,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,45 +2249,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1488000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1412000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1633000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1117000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1052000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1313000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>666000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>424000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,45 +2327,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58849000</v>
+      </c>
+      <c r="E54" s="3">
         <v>53678000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48887000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43376000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35336000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27540000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24143000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22498000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19118000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14328000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14752000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2386,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,224 +2403,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2357000</v>
+        <v>2035000</v>
       </c>
       <c r="E57" s="3">
+        <v>2303000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1677000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1692000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1683000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1495000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1020000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>996000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1048000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1055000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1348000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E58" s="3">
         <v>270000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1310000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>859000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1262000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>756000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1089000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1638000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1585000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>224000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>140000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4008000</v>
+        <v>4234000</v>
       </c>
       <c r="E59" s="3">
+        <v>4062000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3403000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3203000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2389000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2584000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1796000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2345000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1492000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1201000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>992000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6424000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6635000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6390000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5754000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5334000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4835000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3905000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4811000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4125000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2243000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2480000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6621000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6373000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4541000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3780000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9893000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9154000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6301000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5012000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4452000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3038000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1861000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1674000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1088000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>581000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>639000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>623000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>698000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1102000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>535000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1260000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>559000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2673,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2712,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,45 +2751,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14916000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14682000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13006000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11082000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16715000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15460000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11841000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11727000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9976000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6628000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6282000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2810,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2846,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2885,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2924,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,45 +2963,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39051000</v>
+      </c>
+      <c r="E72" s="3">
         <v>33384000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30761000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24395000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10260000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5299000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5588000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2729000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-212000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1402000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-370000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3041,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3080,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,45 +3119,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43933000</v>
+      </c>
+      <c r="E76" s="3">
         <v>38996000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35881000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32294000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18621000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12080000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12302000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10771000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9142000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7700000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8470000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3197,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44441</v>
+      </c>
+      <c r="E80" s="2">
         <v>44077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43706</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43342</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42978</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42614</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42250</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41879</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41515</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41151</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40787</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5861000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2687000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6313000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14135000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5089000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-276000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2899000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3045000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1190000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1032000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>167000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3300,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6214000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5650000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5424000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4759000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3861000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2980000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2667000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2103000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1804000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2141000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3375,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3414,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3453,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3492,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3531,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12468000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8306000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13189000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17400000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8153000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3168000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5208000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5699000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1811000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2114000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2484000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3590,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10030000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8223000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9780000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8879000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4734000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5817000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4021000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3107000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1442000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1699000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2550000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3665,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3704,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10589000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7589000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10085000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8216000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7537000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3068000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6232000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2902000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1910000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,8 +3763,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3565,9 +3799,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3838,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3877,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,115 +3916,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1781000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-317000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2438000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7776000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>349000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1745000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-718000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1499000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>520000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>497000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E101" s="3">
         <v>11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-121000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-28000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E102" s="3">
         <v>411000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>692000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1371000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>953000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1853000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1863000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1270000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>421000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>299000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-753000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>MU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,195 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44805</v>
+      </c>
+      <c r="E7" s="2">
         <v>44441</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44077</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43706</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43342</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42978</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42614</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42250</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41879</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41515</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41151</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40787</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30758000</v>
+      </c>
+      <c r="E8" s="3">
         <v>27705000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21435000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23406000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30391000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20322000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12399000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16192000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16358000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9073000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8234000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8788000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16860000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17233000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14883000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12704000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12500000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11886000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9894000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10977000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10921000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7226000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14532000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14060000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13898000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10472000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6552000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10702000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17891000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8436000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2505000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5215000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5437000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1847000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-6298000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-5272000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,47 +869,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2663000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2600000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2441000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2141000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1824000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1617000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1540000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1371000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>931000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>918000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>791000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,48 +950,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E14" s="3">
         <v>538000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>367000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>413000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>47000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>71000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>51000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>278000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1375000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-183000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,9 +1034,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1027,86 +1052,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>21139000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21423000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18392000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16426000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15782000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14483000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12235000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13242000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13276000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7336000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8846000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8140000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>9619000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6282000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3043000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6980000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14609000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5839000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>164000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2950000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3082000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1737000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-612000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>648000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,203 +1154,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E20" s="3">
         <v>119000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>134000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>196000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>40000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-221000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>16876000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12615000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8827000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12600000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19408000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9658000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3136000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5647000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5188000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3320000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1566000</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E22" s="3">
         <v>183000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>194000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>128000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>342000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>601000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>437000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>371000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>352000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>231000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>179000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>124000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9571000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6218000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2983000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7048000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14307000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5196000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-281000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2609000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2733000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1285000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-754000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>551000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E24" s="3">
         <v>394000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>280000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>703000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>342000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>114000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>157000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>128000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>203000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,87 +1403,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8683000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5824000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2703000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6345000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13965000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5082000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2452000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2605000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1277000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-737000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>348000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8687000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5861000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2687000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6303000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13961000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5089000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-276000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2899000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3045000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1190000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1032000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>167000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1472,26 +1529,29 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>10000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>174000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>16</v>
@@ -1508,12 +1568,15 @@
       <c r="M29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,9 +1613,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1589,87 +1655,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-141000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-119000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-134000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-196000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-40000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>221000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8687000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5861000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2687000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6313000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14135000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5089000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-276000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2899000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3045000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1190000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1032000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>167000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1706,92 +1781,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8687000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5861000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2687000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6313000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14135000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5089000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-276000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2899000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3045000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1190000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1032000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>167000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44805</v>
+      </c>
+      <c r="E38" s="2">
         <v>44441</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44077</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43706</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43342</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42978</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42614</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42250</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41879</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41515</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41151</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40787</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1807,8 +1891,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1824,359 +1909,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8262000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7763000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7624000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7152000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6506000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5109000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4140000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2287000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4150000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2880000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2459000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2160000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E42" s="3">
         <v>870000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>518000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>803000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>296000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>319000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>258000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1234000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>384000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>221000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100000</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5130000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5311000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3912000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3193000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5478000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3759000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2068000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2507000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5430000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2326000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2442000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1497000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6663000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4487000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5607000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5118000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3595000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3123000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2889000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2340000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2455000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2649000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1812000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2080000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1476000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>304000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>237000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>164000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>147000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>140000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>228000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>835000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>257000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21781000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19907000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17965000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16503000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16039000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12457000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9495000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8596000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10245000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8911000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5758000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5832000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1918000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1048000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1164000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>473000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>633000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1778000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3492000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1790000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>895000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>763000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>535000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39227000</v>
+      </c>
+      <c r="E48" s="3">
         <v>33764000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31615000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28240000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23672000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19431000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14686000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10554000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31556000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7626000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27470000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7555000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1577000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1562000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1568000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1559000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1615000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>464000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>449000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>468000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>386000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>410000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>414000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2213,9 +2326,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2252,48 +2368,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1683000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1488000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1412000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1633000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1117000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1052000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1313000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1300000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>666000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>424000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2330,48 +2452,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66283000</v>
+      </c>
+      <c r="E54" s="3">
         <v>58849000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53678000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48887000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43376000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35336000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27540000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24143000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22498000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19118000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14328000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14752000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2387,8 +2515,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2404,242 +2533,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2035000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2303000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1677000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1692000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1683000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1495000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1020000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>996000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1048000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1055000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1348000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E58" s="3">
         <v>155000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>270000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1310000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>859000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1262000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>756000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1089000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1638000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1585000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>224000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>140000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4873000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4234000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4062000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3403000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3203000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2389000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2584000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1796000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2345000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1492000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1201000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>992000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7539000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6424000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6635000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6390000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5754000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5334000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4835000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3905000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4811000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4125000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2243000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2480000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6803000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6621000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6373000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4541000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3780000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9893000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9154000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6301000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5012000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4452000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3038000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1861000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1871000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1674000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1088000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>581000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>639000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>623000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>698000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1102000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>535000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1260000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>559000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2676,9 +2824,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2715,9 +2866,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2754,48 +2908,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16376000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14916000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14682000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13006000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11082000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16715000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15460000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11841000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11727000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9976000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6628000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6282000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2811,8 +2971,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2849,9 +3010,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2888,9 +3052,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2927,9 +3094,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2966,48 +3136,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47274000</v>
+      </c>
+      <c r="E72" s="3">
         <v>39051000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33384000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30761000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24395000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10260000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5299000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5588000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2729000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-212000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1402000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-370000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3044,9 +3220,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3083,9 +3262,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3122,48 +3304,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49907000</v>
+      </c>
+      <c r="E76" s="3">
         <v>43933000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38996000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35881000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32294000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18621000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12080000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12302000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10771000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9142000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7700000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8470000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3200,92 +3388,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44805</v>
+      </c>
+      <c r="E80" s="2">
         <v>44441</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44077</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43706</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43342</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42978</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42614</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42250</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41879</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41515</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41151</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40787</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8687000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5861000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2687000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6313000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14135000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5089000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-276000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2899000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3045000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1190000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1032000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>167000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3301,47 +3498,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7116000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6214000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5650000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5424000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4759000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3861000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2980000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2667000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2103000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1804000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2141000</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3378,9 +3579,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3417,9 +3621,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3456,9 +3663,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3495,9 +3705,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3534,48 +3747,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15181000</v>
+      </c>
+      <c r="E89" s="3">
         <v>12468000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8306000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13189000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17400000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8153000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3168000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5208000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5699000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1811000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2114000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2484000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3591,47 +3810,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12067000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10030000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8223000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9780000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8879000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4734000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5817000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4021000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3107000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1442000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1699000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2550000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3668,9 +3891,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3707,48 +3933,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11585000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10589000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7589000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10085000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8216000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7537000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3068000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6232000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2902000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1910000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3764,13 +3996,14 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-461000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3802,9 +4035,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3841,9 +4077,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3880,9 +4119,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3919,124 +4161,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2980000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1781000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-317000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2438000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7776000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>349000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1745000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-718000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1499000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>520000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>497000</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E101" s="3">
         <v>41000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-37000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-121000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-28000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E102" s="3">
         <v>139000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>411000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>692000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1371000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>953000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1853000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1863000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1270000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>421000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>299000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-753000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>MU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>44805</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44441</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44077</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43706</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43342</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42978</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42614</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42250</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41879</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41515</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41151</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40787</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15540000</v>
+      </c>
+      <c r="E8" s="3">
         <v>30758000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27705000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21435000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23406000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30391000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20322000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12399000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16192000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16358000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9073000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8234000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8788000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16956000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16860000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17233000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14883000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12704000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12500000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11886000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9894000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10977000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10921000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7226000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14532000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14060000</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-1416000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13898000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10472000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6552000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10702000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17891000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8436000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2505000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5215000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5437000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1847000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-6298000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-5272000</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,50 +883,54 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3114000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3116000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2663000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2441000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2141000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1824000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1617000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1540000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1371000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>931000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>918000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>791000</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,51 +970,57 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E14" s="3">
         <v>131000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>538000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>367000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>413000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>47000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>71000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>51000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>278000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1375000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-183000</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,9 +1060,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1053,92 +1079,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>21285000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21139000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21423000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18392000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16426000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15782000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14483000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12235000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13242000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13276000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7336000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8846000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8140000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-5745000</v>
+      </c>
+      <c r="E18" s="3">
         <v>9619000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6282000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3043000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6980000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14609000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5839000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>164000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2950000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3082000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1737000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-612000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>648000</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,218 +1188,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E20" s="3">
         <v>141000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>119000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>134000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>196000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>40000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-221000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27000</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2486000</v>
+      </c>
+      <c r="E21" s="3">
         <v>16876000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12615000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8827000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12600000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19408000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9658000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3136000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5647000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5188000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3320000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1566000</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E22" s="3">
         <v>189000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>183000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>194000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>128000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>342000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>601000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>437000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>371000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>352000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>231000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>179000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>124000</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5658000</v>
+      </c>
+      <c r="E23" s="3">
         <v>9571000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6218000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2983000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7048000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14307000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5196000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-281000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2609000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2733000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1285000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-754000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>551000</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E24" s="3">
         <v>888000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>394000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>280000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>703000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>342000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>114000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>157000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>128000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>203000</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1406,93 +1455,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5835000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8683000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5824000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2703000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6345000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13965000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5082000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2452000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2605000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1277000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-737000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>348000</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5833000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8687000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5861000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2687000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6303000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13961000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5089000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-276000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2899000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3045000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1190000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1032000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>167000</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1532,9 +1590,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,17 +1605,17 @@
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>10000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>174000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>16</v>
@@ -1571,12 +1632,15 @@
       <c r="N29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1616,9 +1680,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1658,93 +1725,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-475000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-141000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-119000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-134000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-196000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-40000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>221000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27000</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5833000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8687000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5861000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2687000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6313000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14135000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5089000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-276000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2899000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3045000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1190000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1032000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>167000</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1784,98 +1860,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5833000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8687000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5861000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2687000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6313000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14135000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5089000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-276000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2899000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3045000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1190000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1032000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>167000</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>44805</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44441</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44077</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43706</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43342</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42978</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42614</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42250</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41879</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41515</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41151</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40787</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1892,8 +1977,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1910,386 +1996,414 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8577000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8262000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7763000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7624000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7152000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6506000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5109000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4140000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2287000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4150000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2880000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2459000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2160000</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1069000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>870000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>518000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>803000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>296000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>319000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>258000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1234000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>384000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>221000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100000</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2443000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5130000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5311000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3912000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3193000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5478000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3759000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2068000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2507000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5430000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2326000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2442000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1497000</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8387000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6663000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4487000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5607000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5118000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3595000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3123000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2889000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2340000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2455000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2649000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1812000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2080000</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E45" s="3">
         <v>657000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1476000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>304000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>237000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>164000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>147000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>140000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>228000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>835000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>257000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>95000</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21244000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21781000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19907000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17965000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16503000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16039000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12457000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9495000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8596000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10245000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8911000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5758000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5832000</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1869000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1918000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1048000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1164000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>473000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>633000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1778000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3492000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1790000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>895000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>763000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>535000</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38594000</v>
+      </c>
+      <c r="E48" s="3">
         <v>39227000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33764000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31615000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28240000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23672000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19431000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14686000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10554000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31556000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7626000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27470000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7555000</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1649000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1577000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1562000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1568000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1559000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1615000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>464000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>449000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>468000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>386000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>410000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>414000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2329,9 +2443,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2371,51 +2488,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1757000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1683000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1488000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1412000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1633000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1117000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1052000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1313000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>666000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>424000</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2455,51 +2578,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64254000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66283000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58849000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53678000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48887000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43376000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35336000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27540000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24143000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22498000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19118000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14328000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14752000</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2516,8 +2645,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2534,260 +2664,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2039000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2563000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2035000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2303000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1677000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1692000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1683000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1495000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1020000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>996000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1048000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1055000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1348000</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E58" s="3">
         <v>103000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>155000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>270000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1310000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>859000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1262000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>756000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1089000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1638000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1585000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>224000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>140000</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2448000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4873000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4234000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4062000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3403000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3203000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2389000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2584000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1796000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2345000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1492000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1201000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>992000</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4765000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7539000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6424000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6635000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6390000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5754000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5334000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4835000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3905000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4811000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4125000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2243000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2480000</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13052000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6803000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6621000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6373000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4541000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3780000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9893000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9154000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6301000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5012000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4452000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3038000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1861000</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2317000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2034000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1871000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1674000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1088000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>581000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>639000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>623000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>698000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1102000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>535000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1260000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>559000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2827,9 +2976,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2869,9 +3021,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2911,51 +3066,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20134000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16376000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14916000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14682000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13006000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11082000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16715000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15460000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11841000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11727000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9976000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6628000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6282000</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2972,8 +3133,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3013,9 +3175,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3055,9 +3220,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3097,9 +3265,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3139,51 +3310,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40824000</v>
+      </c>
+      <c r="E72" s="3">
         <v>47274000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>39051000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33384000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30761000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>24395000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10260000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5299000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5588000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2729000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-212000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1402000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-370000</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3223,9 +3400,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3265,9 +3445,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3307,51 +3490,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44120000</v>
+      </c>
+      <c r="E76" s="3">
         <v>49907000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43933000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38996000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35881000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32294000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18621000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12080000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12302000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10771000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9142000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7700000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8470000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3391,98 +3580,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>44805</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44441</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44077</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43706</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43342</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42978</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42614</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42250</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41879</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41515</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41151</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40787</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5833000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8687000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5861000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2687000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6313000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14135000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5089000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-276000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2899000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3045000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1190000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1032000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>167000</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3499,50 +3697,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7756000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7116000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6214000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5650000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5424000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4759000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3861000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2980000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2667000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2103000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1804000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2141000</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3582,9 +3784,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3624,9 +3829,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3666,9 +3874,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3708,9 +3919,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3750,51 +3964,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E89" s="3">
         <v>15181000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12468000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8306000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13189000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17400000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8153000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3168000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5208000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5699000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1811000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2114000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2484000</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3811,50 +4031,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7676000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12067000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10030000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8223000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9780000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8879000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4734000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5817000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4021000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3107000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1442000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1699000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2550000</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3894,9 +4118,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3936,51 +4163,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6191000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11585000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10589000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7589000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10085000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8216000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7537000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3068000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6232000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2902000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1910000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2312000</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3997,17 +4230,18 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-504000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-461000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4038,9 +4272,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4080,9 +4317,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4122,9 +4362,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4164,133 +4407,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4983000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2980000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1781000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-317000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2438000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7776000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>349000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1745000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-718000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1499000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>520000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>497000</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-106000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>26000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-37000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-121000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E102" s="3">
         <v>510000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>139000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>411000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>692000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1371000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>953000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1853000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1863000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1270000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>421000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>299000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-753000</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
